--- a/code/FuYi/FuYiData/日志记录表格.xlsx
+++ b/code/FuYi/FuYiData/日志记录表格.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="日志记录表格" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日志记录表格" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,205 +482,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>示例任务</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-04-30</t>
-        </is>
+          <t>任务1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45785</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>new_cloud======/path/data</t>
+          <t>C:\Users\Top\Desktop\fuyiyun\old\日志记录表格.xlsx</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>local/path/data</t>
+          <t>D:\Data\ZYYX_BJ_20250515.xlsx</t>
         </is>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>示例任务</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04-30</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
         <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>new_cloud======/path/data</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>local/path/data</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>示例任务</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-04-30</t>
-        </is>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>new_cloud======/path/data</t>
-        </is>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>local/path/data</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>新示例任务</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>new_cloud/path/data</t>
-        </is>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>new_local/path/data</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>示例任务</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-04-30</t>
-        </is>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>new_cloud======/path/data</t>
-        </is>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>local/path/data</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>示例任务</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-04-30</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>new_cloud======/path/data</t>
-        </is>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>local/path/data</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
